--- a/Week 1/Computer Lab/Excel_Jackknife_sol.xlsx
+++ b/Week 1/Computer Lab/Excel_Jackknife_sol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Surfdrive\AE2\PC1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dantesean/Documents/Projects/ae-2/Week 1/Computer Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23D6EA4-A342-4282-873F-556C0AB91C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4B8AB7-2B93-7049-927A-099C73917EA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2004" windowWidth="24852" windowHeight="13008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="2000" windowWidth="24860" windowHeight="13000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -221,15 +221,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>137160</xdr:colOff>
+          <xdr:colOff>139700</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>449580</xdr:colOff>
+          <xdr:colOff>444500</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -254,11 +254,11 @@
               <a:avLst/>
             </a:prstGeom>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
@@ -276,15 +276,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
+          <xdr:colOff>127000</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>441960</xdr:colOff>
+          <xdr:colOff>444500</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -309,11 +309,11 @@
               <a:avLst/>
             </a:prstGeom>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
@@ -331,13 +331,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>144780</xdr:colOff>
+          <xdr:colOff>139700</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>68580</xdr:rowOff>
+          <xdr:rowOff>63500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>601980</xdr:colOff>
+          <xdr:colOff>596900</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -364,11 +364,11 @@
               <a:avLst/>
             </a:prstGeom>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
@@ -386,15 +386,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>19</xdr:col>
-          <xdr:colOff>525780</xdr:colOff>
+          <xdr:colOff>520700</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>101600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -419,11 +419,11 @@
               <a:avLst/>
             </a:prstGeom>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
@@ -441,13 +441,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>21</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>23</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -474,11 +474,11 @@
               <a:avLst/>
             </a:prstGeom>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
@@ -495,7 +495,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -820,17 +820,19 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" customWidth="1"/>
     <col min="4" max="13" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -868,7 +870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -906,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -944,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -982,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1020,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1058,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1096,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1134,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1175,7 +1177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1222,7 +1224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1266,7 +1268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="Y12" s="4" t="s">
         <v>20</v>
       </c>
@@ -1274,7 +1276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1296,7 +1298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1369,7 +1371,7 @@
         <v>0.23626405572373785</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1442,7 +1444,7 @@
         <v>3.5723867446706623E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1515,7 +1517,7 @@
         <v>-0.17293835701979621</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1528,7 +1530,7 @@
       <c r="M18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1556,7 +1558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1585,7 +1587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1613,7 +1615,7 @@
         <v>0.24732550301400555</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>4.9544257098406264E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1669,7 +1671,7 @@
         <v>-0.11175096150475684</v>
       </c>
     </row>
-    <row r="1048576" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="1048576" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1048576" s="1">
         <f>(D1048572-$O$15)^2</f>
         <v>1.5127012585938862</v>
@@ -1688,15 +1690,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>137160</xdr:colOff>
+                <xdr:colOff>139700</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>83820</xdr:rowOff>
+                <xdr:rowOff>88900</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>449580</xdr:colOff>
+                <xdr:colOff>444500</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:rowOff>177800</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1713,15 +1715,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
+                <xdr:colOff>127000</xdr:colOff>
                 <xdr:row>11</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>441960</xdr:colOff>
+                <xdr:colOff>444500</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>160020</xdr:rowOff>
+                <xdr:rowOff>165100</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1738,13 +1740,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>15</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
+                <xdr:colOff>139700</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>68580</xdr:rowOff>
+                <xdr:rowOff>63500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>16</xdr:col>
-                <xdr:colOff>601980</xdr:colOff>
+                <xdr:colOff>596900</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -1763,15 +1765,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>18</xdr:col>
-                <xdr:colOff>68580</xdr:colOff>
+                <xdr:colOff>63500</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>25400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>19</xdr:col>
-                <xdr:colOff>525780</xdr:colOff>
+                <xdr:colOff>520700</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>106680</xdr:rowOff>
+                <xdr:rowOff>101600</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1788,13 +1790,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>21</xdr:col>
-                <xdr:colOff>45720</xdr:colOff>
+                <xdr:colOff>50800</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>23</xdr:col>
-                <xdr:colOff>403860</xdr:colOff>
+                <xdr:colOff>406400</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
@@ -1816,7 +1818,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1828,7 +1830,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
